--- a/doc/weather_data.xlsx
+++ b/doc/weather_data.xlsx
@@ -484,18 +484,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25 10:11:58</t>
+          <t>2024-09-25 10:41:34</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -516,18 +516,18 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25 10:06:43</t>
+          <t>2024-09-25 10:41:31</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -548,18 +548,18 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25 10:06:40</t>
+          <t>2024-09-25 10:41:28</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -580,18 +580,18 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25 10:06:37</t>
+          <t>2024-09-25 10:41:25</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
@@ -612,18 +612,18 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25 10:06:33</t>
+          <t>2024-09-25 10:41:21</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -644,18 +644,18 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25 10:06:30</t>
+          <t>2024-09-25 10:41:18</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -676,18 +676,18 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25 10:06:27</t>
+          <t>2024-09-25 10:41:15</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -708,18 +708,18 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25 09:52:11</t>
+          <t>2024-09-25 10:41:12</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -740,18 +740,18 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25 09:52:07</t>
+          <t>2024-09-25 10:41:08</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
@@ -772,18 +772,18 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25 09:52:04</t>
+          <t>2024-09-25 10:41:05</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
